--- a/ton-kho-long-chim.xlsx
+++ b/ton-kho-long-chim.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48223A4-B9C0-44EA-9E4F-14CAA8071B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1500" windowWidth="24015" windowHeight="13890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1500" windowWidth="24015" windowHeight="13890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tồn kho" sheetId="1" r:id="rId1"/>
     <sheet name="quy ước" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,19 +97,19 @@
     <t>khung lồng tre full phụ kiện</t>
   </si>
   <si>
-    <t>long-full-mun1</t>
-  </si>
-  <si>
     <t>long-full-mun2</t>
   </si>
   <si>
     <t>2 cầu góc tre+3 nậm huế+2 móc inox</t>
+  </si>
+  <si>
+    <t>mun-cau-cong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -275,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -452,14 +446,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -723,11 +717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -767,10 +761,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
